--- a/biology/Médecine/Pietro_d'Argelata/Pietro_d'Argelata.xlsx
+++ b/biology/Médecine/Pietro_d'Argelata/Pietro_d'Argelata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pietro_d%27Argelata</t>
+          <t>Pietro_d'Argelata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pietro d'Argelata, ou d'Argellata, en latin Petrus de Argellata, mort en 1423[1], est un chirurgien italien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pietro d'Argelata, ou d'Argellata, en latin Petrus de Argellata, mort en 1423, est un chirurgien italien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pietro_d%27Argelata</t>
+          <t>Pietro_d'Argelata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pietro d'Argelata a été l'élève de Guy de Chauliac. Il a enseigné la chirurgie à l'université de Bologne et exercé dans cette ville[3]. Il y a pratiqué d'ailleurs l'autopsie du cadavre du pape Alexandre V, mort soudainement dans la ville le 3 mai 1410[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pietro d'Argelata a été l'élève de Guy de Chauliac. Il a enseigné la chirurgie à l'université de Bologne et exercé dans cette ville. Il y a pratiqué d'ailleurs l'autopsie du cadavre du pape Alexandre V, mort soudainement dans la ville le 3 mai 1410.
 Son livre Cirurgia a fait l'objet de quatre éditions incunables à Venise : 1480, édité par Matthaeus Moretus ; 1492 ; 1497 et 1499.
 </t>
         </is>
